--- a/data/trans_dic/P15D-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 28,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 64,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>2,96; 28,65</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,82%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>10,6; 59,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 65,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>12,07; 50,7</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 56,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 51,42</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 85,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 81,12</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 82,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 74,68</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 46,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 26,82</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>9,97; 33,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>9,23; 37,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>12,46; 30,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15D-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,02</t>
+          <t>0,0; 77,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,82</t>
+          <t>0,0; 62,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 36,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 23,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21,29%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>9,97; 33,41</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>9,23; 37,09</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>12,46; 30,12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
